--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42395</v>
+        <v>4837</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leonardo Cavalcanti</t>
+          <t>Sra. Luna Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>6416.92</v>
+        <v>6871.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91492</v>
+        <v>67767</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Ramos</t>
+          <t>Alana Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>9513.059999999999</v>
+        <v>4374.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84086</v>
+        <v>91988</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietro Farias</t>
+          <t>Dr. Paulo Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>2825.72</v>
+        <v>9521.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80629</v>
+        <v>12832</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clara Jesus</t>
+          <t>Kamilly da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>11680.03</v>
+        <v>6745.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49992</v>
+        <v>7663</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Murilo Teixeira</t>
+          <t>Maria Fernanda da Mata</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>8075.94</v>
+        <v>5563.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11545</v>
+        <v>25435</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Felipe Freitas</t>
+          <t>Alana Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>12083.79</v>
+        <v>7112.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21371</v>
+        <v>54498</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Costa</t>
+          <t>Erick Novaes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>7612.41</v>
+        <v>5979.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14967</v>
+        <v>60944</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriela da Rocha</t>
+          <t>Marcela Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>7575.29</v>
+        <v>9522.889999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10580</v>
+        <v>13925</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sophia Freitas</t>
+          <t>Bruno Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>5203.4</v>
+        <v>10802.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53708</v>
+        <v>24737</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Miguel Carvalho</t>
+          <t>Lívia Fernandes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>5442.38</v>
+        <v>8193.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4837</v>
+        <v>56042</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Luna Caldeira</t>
+          <t>Marcelo Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>6871.51</v>
+        <v>11852.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67767</v>
+        <v>86757</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alana Barbosa</t>
+          <t>Thales da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4374.69</v>
+        <v>12443.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91988</v>
+        <v>1701</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Paulo Castro</t>
+          <t>Davi Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>9521.42</v>
+        <v>6308.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12832</v>
+        <v>90082</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamilly da Luz</t>
+          <t>Lorena Nogueira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>6745.04</v>
+        <v>6426.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7663</v>
+        <v>48697</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Fernanda da Mata</t>
+          <t>Dra. Sophie Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>5563.91</v>
+        <v>2713.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25435</v>
+        <v>4237</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Moraes</t>
+          <t>Dra. Isabella Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>7112.65</v>
+        <v>6829.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54498</v>
+        <v>51856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erick Novaes</t>
+          <t>Srta. Luna Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>5979.87</v>
+        <v>6479.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60944</v>
+        <v>79116</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela Campos</t>
+          <t>Bryan Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>9522.889999999999</v>
+        <v>4426.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13925</v>
+        <v>20329</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruno Novaes</t>
+          <t>Pedro Miguel Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>10802.35</v>
+        <v>10678.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24737</v>
+        <v>13249</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lívia Fernandes</t>
+          <t>Maitê Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>8193.15</v>
+        <v>6903.67</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56042</v>
+        <v>12146</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcelo Pinto</t>
+          <t>Ana Vitória Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>11852.22</v>
+        <v>9754.370000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86757</v>
+        <v>72460</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thales da Conceição</t>
+          <t>Paulo da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>12443.37</v>
+        <v>3423.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1701</v>
+        <v>7658</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Fogaça</t>
+          <t>Caroline Campos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>6308.88</v>
+        <v>8604.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90082</v>
+        <v>2824</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorena Nogueira</t>
+          <t>Sr. Lorenzo Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,26 +577,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>6426.36</v>
+        <v>11599.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48697</v>
+        <v>68772</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Sophie Cardoso</t>
+          <t>Sra. Maria Clara Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,80 +610,80 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>2713.53</v>
+        <v>11616.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4237</v>
+        <v>11568</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Isabella Almeida</t>
+          <t>Lucas Gabriel Vieira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>6829.63</v>
+        <v>3881.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51856</v>
+        <v>37500</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Luna Cunha</t>
+          <t>Sr. Vitor Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>6479.17</v>
+        <v>11639.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79116</v>
+        <v>69510</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bryan Monteiro</t>
+          <t>Srta. Ana Luiza Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,26 +693,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>4426.38</v>
+        <v>3781.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20329</v>
+        <v>38938</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Caldeira</t>
+          <t>Sra. Emanuella Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>10678.34</v>
+        <v>5812.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13249</v>
+        <v>41200</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maitê Campos</t>
+          <t>Larissa Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>6903.67</v>
+        <v>8273.82</v>
       </c>
     </row>
   </sheetData>
